--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AD/20/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AD/20/seed2/result_data_KNN.xlsx
@@ -471,7 +471,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-22.104</v>
+        <v>-21.867</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
@@ -625,7 +625,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-21.778</v>
+        <v>-21.699</v>
       </c>
       <c r="B14" t="n">
         <v>4.04</v>
@@ -648,12 +648,12 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-7.882</v>
+        <v>-8.186999999999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-22.052</v>
+        <v>-22.194</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-19.972</v>
+        <v>-19.921</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -732,7 +732,7 @@
         <v>-13.13</v>
       </c>
       <c r="D21" t="n">
-        <v>-8.502000000000001</v>
+        <v>-8.32</v>
       </c>
     </row>
     <row r="22">
@@ -746,12 +746,12 @@
         <v>-15.07</v>
       </c>
       <c r="D22" t="n">
-        <v>-8.378</v>
+        <v>-8.293000000000001</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-19.94</v>
+        <v>-20.203</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -774,12 +774,12 @@
         <v>-10.44</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.49</v>
+        <v>-7.327000000000001</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.748</v>
+        <v>-21.69</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
@@ -793,7 +793,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-21.51</v>
+        <v>-21.662</v>
       </c>
       <c r="B26" t="n">
         <v>6.56</v>
@@ -816,7 +816,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-7.646000000000001</v>
+        <v>-8.029</v>
       </c>
     </row>
     <row r="28">
@@ -830,12 +830,12 @@
         <v>-11.8</v>
       </c>
       <c r="D28" t="n">
-        <v>-7.789999999999999</v>
+        <v>-7.995</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.042</v>
+        <v>-21.086</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -942,7 +942,7 @@
         <v>-10.09</v>
       </c>
       <c r="D36" t="n">
-        <v>-6.931999999999999</v>
+        <v>-7.638000000000001</v>
       </c>
     </row>
     <row r="37">
@@ -984,12 +984,12 @@
         <v>-10.58</v>
       </c>
       <c r="D39" t="n">
-        <v>-6.875999999999999</v>
+        <v>-7.357000000000001</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-19.454</v>
+        <v>-20</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -1068,7 +1068,7 @@
         <v>-11</v>
       </c>
       <c r="D45" t="n">
-        <v>-7.608</v>
+        <v>-7.501</v>
       </c>
     </row>
     <row r="46">
@@ -1110,7 +1110,7 @@
         <v>-10.86</v>
       </c>
       <c r="D48" t="n">
-        <v>-7.608</v>
+        <v>-7.617</v>
       </c>
     </row>
     <row r="49">
@@ -1124,7 +1124,7 @@
         <v>-12.11</v>
       </c>
       <c r="D49" t="n">
-        <v>-8.077999999999999</v>
+        <v>-8.185</v>
       </c>
     </row>
     <row r="50">
@@ -1166,12 +1166,12 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.907999999999999</v>
+        <v>-7.904999999999999</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-22.32</v>
+        <v>-22.068</v>
       </c>
       <c r="B53" t="n">
         <v>5.82</v>
@@ -1180,7 +1180,7 @@
         <v>-12.98</v>
       </c>
       <c r="D53" t="n">
-        <v>-7.734</v>
+        <v>-7.85</v>
       </c>
     </row>
     <row r="54">
@@ -1194,7 +1194,7 @@
         <v>-13.87</v>
       </c>
       <c r="D54" t="n">
-        <v>-7.68</v>
+        <v>-8.112</v>
       </c>
     </row>
     <row r="55">
@@ -1227,7 +1227,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.44</v>
+        <v>-22.612</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1236,7 +1236,7 @@
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.071999999999999</v>
+        <v>-8.179</v>
       </c>
     </row>
     <row r="58">
@@ -1255,7 +1255,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.368</v>
+        <v>-22.437</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1339,7 +1339,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-21.19</v>
+        <v>-21.529</v>
       </c>
       <c r="B65" t="n">
         <v>6.69</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.57</v>
+        <v>-21.606</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1418,7 +1418,7 @@
         <v>-9.9</v>
       </c>
       <c r="D70" t="n">
-        <v>-6.81</v>
+        <v>-6.824000000000001</v>
       </c>
     </row>
     <row r="71">
@@ -1432,7 +1432,7 @@
         <v>-9.93</v>
       </c>
       <c r="D71" t="n">
-        <v>-6.808</v>
+        <v>-7.02</v>
       </c>
     </row>
     <row r="72">
@@ -1535,7 +1535,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-20.064</v>
+        <v>-20.594</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-22.084</v>
+        <v>-22.054</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1642,7 +1642,7 @@
         <v>-14.09</v>
       </c>
       <c r="D86" t="n">
-        <v>-8.383999999999999</v>
+        <v>-8.257999999999999</v>
       </c>
     </row>
     <row r="87">
@@ -1656,7 +1656,7 @@
         <v>-15.19</v>
       </c>
       <c r="D87" t="n">
-        <v>-8.108000000000001</v>
+        <v>-8.33</v>
       </c>
     </row>
     <row r="88">
@@ -1684,7 +1684,7 @@
         <v>-14.65</v>
       </c>
       <c r="D89" t="n">
-        <v>-8.212</v>
+        <v>-8.056999999999999</v>
       </c>
     </row>
     <row r="90">
@@ -1703,7 +1703,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-20.722</v>
+        <v>-20.666</v>
       </c>
       <c r="B91" t="n">
         <v>7.49</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.422</v>
+        <v>-21.475</v>
       </c>
       <c r="B93" t="n">
         <v>4.28</v>
@@ -1829,7 +1829,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-22.386</v>
+        <v>-22.195</v>
       </c>
       <c r="B100" t="n">
         <v>4.73</v>
@@ -1852,7 +1852,7 @@
         <v>-15.77</v>
       </c>
       <c r="D101" t="n">
-        <v>-7.774000000000001</v>
+        <v>-8.183</v>
       </c>
     </row>
     <row r="102">
@@ -1871,7 +1871,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>-22.124</v>
+        <v>-22.086</v>
       </c>
       <c r="B103" t="n">
         <v>5.09</v>
